--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Công việc</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>tạo user control riêng cho phân đăng nhập nha, add vào trong folder user control của project, lúc cần chỉ kéo thả vào page thôi, dựa theo yêu cầu trong file của thầy phúc.</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>mail xác nhận</t>
+  </si>
+  <si>
+    <t>capchar</t>
+  </si>
+  <si>
+    <t>post get, connect giữa các trang</t>
   </si>
 </sst>
 </file>
@@ -720,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -902,20 +914,28 @@
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="15.75">

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Công việc</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>post get, connect giữa các trang</t>
+  </si>
+  <si>
+    <t>tìm resource các file ảnh quảng cáo</t>
+  </si>
+  <si>
+    <t>rss + feed cho phần hiển thị tin tức</t>
+  </si>
+  <si>
+    <t>button đăng kí</t>
+  </si>
+  <si>
+    <t>có dữ liệu -&gt; đăng nhập</t>
   </si>
 </sst>
 </file>
@@ -732,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -941,25 +953,33 @@
     <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>Bình</t>
-  </si>
-  <si>
-    <t>Chủ Nhật (20/11/2010)</t>
   </si>
   <si>
     <t>Ân</t>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>có dữ liệu -&gt; đăng nhập</t>
+  </si>
+  <si>
+    <t>Thứ 7 (19/11/2010)</t>
   </si>
 </sst>
 </file>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -789,10 +789,10 @@
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
       <c r="B4" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="5"/>
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>1</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -849,32 +849,32 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
       <c r="A9" s="21"/>
       <c r="B9" s="24"/>
       <c r="C9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -882,13 +882,13 @@
       <c r="A10" s="21"/>
       <c r="B10" s="24"/>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -896,13 +896,13 @@
       <c r="A11" s="21"/>
       <c r="B11" s="24"/>
       <c r="C11" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -910,10 +910,10 @@
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="19"/>
@@ -927,10 +927,10 @@
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
     </row>
@@ -938,7 +938,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2"/>
     </row>
@@ -946,7 +946,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -954,7 +954,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2"/>
     </row>
@@ -962,7 +962,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
     </row>
@@ -970,7 +970,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2"/>
     </row>
@@ -978,7 +978,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2"/>
     </row>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Công việc</t>
   </si>
@@ -87,31 +87,28 @@
     <t>tạo user control riêng cho phân đăng nhập nha, add vào trong folder user control của project, lúc cần chỉ kéo thả vào page thôi, dựa theo yêu cầu trong file của thầy phúc.</t>
   </si>
   <si>
-    <t>Next</t>
+    <t>Thứ 7 (19/11/2010)</t>
   </si>
   <si>
-    <t>mail xác nhận</t>
+    <t>gõ submit thì gửi mail tới người dùng xác nhận</t>
   </si>
   <si>
-    <t>capchar</t>
+    <t>Thứ 4 (24/11/2010)</t>
   </si>
   <si>
-    <t>post get, connect giữa các trang</t>
+    <t>đăng nhập, đăng kí nhà tuyển dụng và người tìm việc, truy suất dữ liệu</t>
   </si>
   <si>
-    <t>tìm resource các file ảnh quảng cáo</t>
+    <t>submit đăng kí-&gt; lưu csdl</t>
   </si>
   <si>
-    <t>rss + feed cho phần hiển thị tin tức</t>
+    <t>tìm cách lưu trữ xác nhận capchars đúng hay sai</t>
   </si>
   <si>
-    <t>button đăng kí</t>
+    <t>tìm source ảnh capchar (khoảng 20 tấm) + ảnh gif quảng cáo</t>
   </si>
   <si>
-    <t>có dữ liệu -&gt; đăng nhập</t>
-  </si>
-  <si>
-    <t>Thứ 7 (19/11/2010)</t>
+    <t>hiển thị tin tức nổi bật (rss,feed), FAQ</t>
   </si>
 </sst>
 </file>
@@ -354,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,6 +397,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,15 +441,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L434"/>
+  <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -759,20 +775,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -788,22 +804,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -845,10 +861,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="63">
-      <c r="A8" s="20">
+      <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -860,13 +876,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>31</v>
+      <c r="F8" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -876,11 +892,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -890,11 +906,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="21"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -904,11 +920,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1">
+      <c r="A12" s="32"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -916,139 +932,163 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="2"/>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" ht="45" customHeight="1">
+      <c r="A15" s="24">
+        <v>2</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" ht="39" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.75">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+      <c r="E18" s="15"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75">
+      <c r="E19" s="12"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75">
+    <row r="32" spans="1:6" ht="15.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2981,10 +3021,10 @@
       <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4" ht="15.75">
-      <c r="A354" s="1"/>
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
-      <c r="D354" s="1"/>
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:4" ht="15.75">
       <c r="A355" s="1"/>
@@ -3466,15 +3506,24 @@
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
     </row>
+    <row r="435" spans="1:4" ht="15.75">
+      <c r="A435" s="1"/>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
+  <mergeCells count="10">
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Công việc</t>
   </si>
@@ -96,19 +96,16 @@
     <t>Thứ 4 (24/11/2010)</t>
   </si>
   <si>
-    <t>đăng nhập, đăng kí nhà tuyển dụng và người tìm việc, truy suất dữ liệu</t>
+    <t>hiển thị tin tức nổi bật (rss,feed), FAQ</t>
   </si>
   <si>
-    <t>submit đăng kí-&gt; lưu csdl</t>
+    <t>tìm source ảnh capchar (khoảng 20 tấm), tạo 1 bảng csdl lưu trữ thông tin capchar.</t>
   </si>
   <si>
-    <t>tìm cách lưu trữ xác nhận capchars đúng hay sai</t>
+    <t>submit đăng kí-&gt;truy xuất lưu vào csdl</t>
   </si>
   <si>
-    <t>tìm source ảnh capchar (khoảng 20 tấm) + ảnh gif quảng cáo</t>
-  </si>
-  <si>
-    <t>hiển thị tin tức nổi bật (rss,feed), FAQ</t>
+    <t>tạo button đăng nhập, đăng kí nhà tuyển dụng và người tìm việc, kết nối các page, truy suất dữ liệu hiển thị lên cái control.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -419,28 +416,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,20 +775,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -804,22 +804,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -861,10 +861,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="63">
-      <c r="A8" s="30">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -876,13 +876,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="31"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -892,11 +892,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="31"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -906,11 +906,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="31"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -920,11 +920,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="32"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -932,7 +932,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -942,59 +942,57 @@
       <c r="E13" s="22"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" ht="24.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="24">
+      <c r="A15" s="31">
         <v>2</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>27</v>
+      <c r="D15" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="28"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="28"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1002,19 +1000,19 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="1:6" ht="45.75" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -3514,16 +3512,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>Công việc</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>tạo button đăng nhập, đăng kí nhà tuyển dụng và người tìm việc, kết nối các page, truy suất dữ liệu hiển thị lên cái control.</t>
+  </si>
+  <si>
+    <t>Người dùng xác nhận link , báo đăng kí thành công</t>
+  </si>
+  <si>
+    <t>Đăng nhập , kiểm tra user đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Basement , Feature đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngăn chặn ko cho xem subpage khi chưa đăng nhập </t>
+  </si>
+  <si>
+    <t>design UC cập nhật thông tin cho người tìm việc với nhà tuyển dụng</t>
+  </si>
+  <si>
+    <t>FAQ , hiển thị user nào đang đăng nhập</t>
+  </si>
+  <si>
+    <t>Thứ 4 (30/11/2010)</t>
   </si>
 </sst>
 </file>
@@ -348,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -416,6 +437,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,13 +486,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -464,6 +515,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -775,20 +830,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -804,22 +859,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -861,11 +916,11 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="63">
-      <c r="A8" s="28">
+      <c r="A8" s="38">
         <v>1</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>12</v>
+      <c r="B8" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -876,13 +931,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="35" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -892,11 +947,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -906,11 +961,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -920,11 +975,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -932,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -949,10 +1004,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="31">
+      <c r="A15" s="32">
         <v>2</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -962,13 +1017,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -976,11 +1031,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="26"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -988,11 +1043,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="26"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1000,11 +1055,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="37"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1032,41 +1087,77 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+    <row r="23" spans="1:6" ht="27.75" customHeight="1">
+      <c r="A23" s="32">
+        <v>3</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="51"/>
+      <c r="F23" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="35.25" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" ht="42" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" ht="36" customHeight="1">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="2"/>
@@ -3511,17 +3602,20 @@
       <c r="D435" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
+  <mergeCells count="13">
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="B15:B19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Công việc</t>
   </si>
@@ -108,25 +108,28 @@
     <t>tạo button đăng nhập, đăng kí nhà tuyển dụng và người tìm việc, kết nối các page, truy suất dữ liệu hiển thị lên cái control.</t>
   </si>
   <si>
-    <t>Người dùng xác nhận link , báo đăng kí thành công</t>
-  </si>
-  <si>
-    <t>Đăng nhập , kiểm tra user đăng nhập thành công</t>
-  </si>
-  <si>
     <t>Basement , Feature đăng nhập</t>
   </si>
   <si>
-    <t xml:space="preserve">Ngăn chặn ko cho xem subpage khi chưa đăng nhập </t>
-  </si>
-  <si>
-    <t>design UC cập nhật thông tin cho người tìm việc với nhà tuyển dụng</t>
-  </si>
-  <si>
-    <t>FAQ , hiển thị user nào đang đăng nhập</t>
-  </si>
-  <si>
     <t>Thứ 4 (30/11/2010)</t>
+  </si>
+  <si>
+    <t>Người dùng xác nhận link , báo đăng kí thành công với  2 tài khoản, đăng tin tuyển dụng.</t>
+  </si>
+  <si>
+    <t>UC cập nhật thông tin cho người tìm việc với nhà tuyển dụng, update thông tin cập nhật vào csdl.</t>
+  </si>
+  <si>
+    <t>Ngăn chặn ko cho xem subpage khi chưa đăng nhập. UC tìm kiếm dơn giản và nâng cao.</t>
+  </si>
+  <si>
+    <t>Đăng nhập , kiểm tra user đăng nhập thành công, upload CV , lưu CV.</t>
+  </si>
+  <si>
+    <t>FAQ (1 dạng hướng dẫn người dùng đăng kí) , hiển thị user nào đang đăng nhập.</t>
+  </si>
+  <si>
+    <t>Feature đăng nhập, tìm kiếm, update thông tin, đăng tải tin tức.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,15 +443,70 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,67 +516,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,20 +830,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -859,22 +859,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -915,12 +915,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="63">
-      <c r="A8" s="38">
+    <row r="8" spans="1:12" ht="64.5" customHeight="1">
+      <c r="A8" s="46">
         <v>1</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>32</v>
+      <c r="B8" s="49" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>4</v>
@@ -931,13 +931,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -947,11 +947,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="36"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -961,11 +961,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="36"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -975,11 +975,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1004,10 +1004,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="32">
+      <c r="A15" s="40">
         <v>2</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="40" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1017,13 +1017,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1031,11 +1031,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="36"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1043,11 +1043,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="36"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1055,11 +1055,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="36"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1081,77 +1081,77 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="27.75" customHeight="1">
-      <c r="A23" s="32">
+    <row r="23" spans="1:6" ht="36.75" customHeight="1">
+      <c r="A23" s="40">
         <v>3</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="B23" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="35" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>35</v>
+      <c r="D24" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" ht="42" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="31" t="s">
-        <v>34</v>
+      <c r="D25" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" ht="26.25" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>30</v>
+      <c r="D26" s="29" t="s">
+        <v>32</v>
       </c>
       <c r="E26" s="15"/>
-      <c r="F26" s="36"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="37"/>
+      <c r="D27" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -3603,12 +3603,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
@@ -3616,6 +3610,12 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Công việc</t>
   </si>
@@ -114,22 +114,25 @@
     <t>Thứ 4 (30/11/2010)</t>
   </si>
   <si>
-    <t>Người dùng xác nhận link , báo đăng kí thành công với  2 tài khoản, đăng tin tuyển dụng.</t>
-  </si>
-  <si>
     <t>UC cập nhật thông tin cho người tìm việc với nhà tuyển dụng, update thông tin cập nhật vào csdl.</t>
   </si>
   <si>
     <t>Ngăn chặn ko cho xem subpage khi chưa đăng nhập. UC tìm kiếm dơn giản và nâng cao.</t>
   </si>
   <si>
-    <t>Đăng nhập , kiểm tra user đăng nhập thành công, upload CV , lưu CV.</t>
-  </si>
-  <si>
-    <t>FAQ (1 dạng hướng dẫn người dùng đăng kí) , hiển thị user nào đang đăng nhập.</t>
-  </si>
-  <si>
     <t>Feature đăng nhập, tìm kiếm, update thông tin, đăng tải tin tức.</t>
+  </si>
+  <si>
+    <t>hiển thị captchar từ csdl, gửi mail…</t>
+  </si>
+  <si>
+    <t>Hoàn tất feature đăng kí 2 loại tài khoản. Báo thành công đăng nhập user, hiển thị user đang đăng nhập.</t>
+  </si>
+  <si>
+    <t>FAQ (1 dạng hướng dẫn người dùng đăng kí, tạo hồ sơ). Tạo mẫu cv có sẵn.</t>
+  </si>
+  <si>
+    <t>Đăng nhập , kiểm tra user đăng nhập thành công, up và lưu CV. Gửi nhận thông tin cho nhà tuyển dụng.</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -449,6 +452,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,10 +468,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,42 +523,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -830,20 +836,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -859,22 +865,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -916,10 +922,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A8" s="46">
+      <c r="A8" s="43">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -931,13 +937,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -947,11 +953,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="47"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -961,11 +967,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -975,11 +981,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -987,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="45"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1004,10 +1010,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="40">
+      <c r="A15" s="34">
         <v>2</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1017,13 +1023,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1031,11 +1037,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="44"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1043,11 +1049,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="44"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1055,11 +1061,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1088,70 +1094,72 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A23" s="40">
+      <c r="A23" s="34">
         <v>3</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>37</v>
+      <c r="B23" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="43" t="s">
+      <c r="D23" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="40" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="41"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>36</v>
+      <c r="D24" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="50"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>33</v>
+      <c r="D25" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="44"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A26" s="41"/>
-      <c r="B26" s="50"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="44"/>
+      <c r="D26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -3603,6 +3611,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
@@ -3610,12 +3624,6 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -111,9 +111,6 @@
     <t>Basement , Feature đăng nhập</t>
   </si>
   <si>
-    <t>Thứ 4 (30/11/2010)</t>
-  </si>
-  <si>
     <t>UC cập nhật thông tin cho người tìm việc với nhà tuyển dụng, update thông tin cập nhật vào csdl.</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Đăng nhập , kiểm tra user đăng nhập thành công, up và lưu CV. Gửi nhận thông tin cho nhà tuyển dụng.</t>
+  </si>
+  <si>
+    <t>Thứ 4 (1/12/2010)</t>
   </si>
 </sst>
 </file>
@@ -468,6 +468,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -503,27 +524,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,20 +836,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -865,22 +865,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="48"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -922,10 +922,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="50">
         <v>1</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -937,13 +937,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="44"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -953,11 +953,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="44"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -967,11 +967,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="41"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="44"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -981,11 +981,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="39"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -993,7 +993,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="42"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1010,10 +1010,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="41">
         <v>2</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1023,13 +1023,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1037,11 +1037,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1049,11 +1049,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="41"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1061,11 +1061,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="41"/>
+      <c r="F18" s="48"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="42"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1094,72 +1094,72 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A23" s="34">
+      <c r="A23" s="41">
         <v>3</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>34</v>
+      <c r="B23" s="44" t="s">
+        <v>33</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="40" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="41"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="41"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="41"/>
+        <v>34</v>
+      </c>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="36"/>
-      <c r="B27" s="39"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="30"/>
-      <c r="F27" s="42"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -3611,12 +3611,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
@@ -3624,6 +3618,12 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -126,13 +126,13 @@
     <t>Hoàn tất feature đăng kí 2 loại tài khoản. Báo thành công đăng nhập user, hiển thị user đang đăng nhập.</t>
   </si>
   <si>
-    <t>FAQ (1 dạng hướng dẫn người dùng đăng kí, tạo hồ sơ). Tạo mẫu cv có sẵn.</t>
-  </si>
-  <si>
     <t>Đăng nhập , kiểm tra user đăng nhập thành công, up và lưu CV. Gửi nhận thông tin cho nhà tuyển dụng.</t>
   </si>
   <si>
     <t>Thứ 4 (1/12/2010)</t>
+  </si>
+  <si>
+    <t>FAQ (1 dạng hướng dẫn người dùng đăng kí, tạo hồ sơ). Tạo mẫu cv có sẵn. Form đăng tin tuyển dụng.</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,6 +468,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -488,42 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -821,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,20 +839,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -865,22 +868,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="38"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -922,10 +925,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A8" s="50">
+      <c r="A8" s="44">
         <v>1</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="38" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -937,13 +940,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="41" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -953,11 +956,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -967,11 +970,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="48"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="51"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -981,11 +984,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="48"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="52"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -993,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="49"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1010,10 +1013,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="41">
+      <c r="A15" s="35">
         <v>2</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1023,13 +1026,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="41" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1037,11 +1040,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="48"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1049,11 +1052,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="48"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1061,11 +1064,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="48"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="49"/>
+      <c r="F19" s="43"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1094,38 +1097,38 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A23" s="41">
+      <c r="A23" s="35">
         <v>3</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="47" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>36</v>
+      <c r="D24" s="34" t="s">
+        <v>38</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
@@ -1133,11 +1136,11 @@
         <v>31</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="48"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
@@ -1147,11 +1150,11 @@
       <c r="E26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="30"/>
-      <c r="F27" s="49"/>
+      <c r="F27" s="43"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -3611,6 +3614,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
@@ -3618,12 +3627,6 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Công việc</t>
   </si>
@@ -133,6 +133,27 @@
   </si>
   <si>
     <t>FAQ (1 dạng hướng dẫn người dùng đăng kí, tạo hồ sơ). Tạo mẫu cv có sẵn. Form đăng tin tuyển dụng.</t>
+  </si>
+  <si>
+    <t>Hoan tất đăng nhập, đăng tin tuyển dụng và CV, update thông tin</t>
+  </si>
+  <si>
+    <t>Thứ 7 (4/12/2010)</t>
+  </si>
+  <si>
+    <t>Lưu thông tin, hiển thị thông tin đối với CV và tin đăng tuyển dụng.</t>
+  </si>
+  <si>
+    <t>Sửa chửa đăng kí 2 loại tài khoản + nút logout, đăng nhập hiển thị user đang đăng nhập + disable đăng kí , đăng nhập khi login</t>
+  </si>
+  <si>
+    <t>Gửi nhận thông tin cho nhà tuyển dụng.</t>
+  </si>
+  <si>
+    <t>Tuần trước + chức năng quên mật khẩu ..</t>
+  </si>
+  <si>
+    <t>Trang admin, quyền admin</t>
   </si>
 </sst>
 </file>
@@ -375,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -471,6 +492,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,27 +566,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -824,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -839,20 +878,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -868,22 +907,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -925,10 +964,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A8" s="44">
+      <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -940,13 +979,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="54" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="45"/>
-      <c r="B9" s="39"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -956,11 +995,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="45"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -970,11 +1009,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="45"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -984,11 +1023,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="40"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="43"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1013,10 +1052,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="35">
+      <c r="A15" s="48">
         <v>2</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1026,13 +1065,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1040,11 +1079,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1052,11 +1091,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1064,11 +1103,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1115,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="43"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1097,10 +1136,10 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A23" s="35">
+      <c r="A23" s="48">
         <v>3</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="51" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -1110,13 +1149,13 @@
         <v>36</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="54" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="36"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
@@ -1124,11 +1163,11 @@
         <v>38</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A25" s="36"/>
-      <c r="B25" s="39"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
@@ -1136,11 +1175,11 @@
         <v>31</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="42"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A26" s="36"/>
-      <c r="B26" s="39"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
@@ -1150,11 +1189,11 @@
       <c r="E26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="30"/>
-      <c r="F27" s="43"/>
+      <c r="F27" s="56"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -1176,115 +1215,151 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="31.5" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75">
+    <row r="31" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A31" s="48">
+        <v>4</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5">
+      <c r="A32" s="49"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" ht="33.75" customHeight="1">
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="15"/>
+      <c r="F33" s="55"/>
+    </row>
+    <row r="34" spans="1:6" ht="47.25">
+      <c r="A34" s="49"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="15"/>
+      <c r="F34" s="55"/>
+    </row>
+    <row r="35" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75">
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75">
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75">
+    <row r="45" spans="1:6" ht="15.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="15.75">
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="15.75">
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="15.75">
+    <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3613,13 +3688,10 @@
       <c r="D435" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B15:B19"/>
+  <mergeCells count="16">
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="F31:F35"/>
     <mergeCell ref="A23:A27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
@@ -3627,6 +3699,12 @@
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/PhanCong.xlsx
+++ b/PhanCong.xlsx
@@ -141,19 +141,19 @@
     <t>Thứ 7 (4/12/2010)</t>
   </si>
   <si>
-    <t>Lưu thông tin, hiển thị thông tin đối với CV và tin đăng tuyển dụng.</t>
-  </si>
-  <si>
-    <t>Sửa chửa đăng kí 2 loại tài khoản + nút logout, đăng nhập hiển thị user đang đăng nhập + disable đăng kí , đăng nhập khi login</t>
-  </si>
-  <si>
     <t>Gửi nhận thông tin cho nhà tuyển dụng.</t>
   </si>
   <si>
     <t>Tuần trước + chức năng quên mật khẩu ..</t>
   </si>
   <si>
-    <t>Trang admin, quyền admin</t>
+    <t>Lưu thông tin, hiển thị thông tin đối với CV và tin đăng tuyển dụng + thiết kế prototype admin</t>
+  </si>
+  <si>
+    <t>nút logout, đăng nhập hiển thị user đang đăng nhập + disable đăng kí , đăng nhập khi login</t>
+  </si>
+  <si>
+    <t>Sửa chửa đăng kí 2 loại tài khoản + Trang page my tìm việc</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,6 +495,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -504,12 +513,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -538,33 +568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,7 +867,7 @@
   <dimension ref="A1:L435"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,20 +881,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
@@ -907,22 +910,22 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="36" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39.75" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -964,10 +967,10 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A8" s="57">
+      <c r="A8" s="45">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -979,13 +982,13 @@
       <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="31.5">
-      <c r="A9" s="58"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
@@ -995,11 +998,11 @@
       <c r="E9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:12" ht="31.5">
-      <c r="A10" s="58"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1009,11 +1012,11 @@
       <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:12" ht="63">
-      <c r="A11" s="58"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
@@ -1023,11 +1026,11 @@
       <c r="E11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="56"/>
+      <c r="F12" s="44"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="21"/>
@@ -1052,10 +1055,10 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1">
-      <c r="A15" s="48">
+      <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1065,13 +1068,13 @@
         <v>28</v>
       </c>
       <c r="E15" s="16"/>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="42" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="18" t="s">
         <v>5</v>
       </c>
@@ -1079,11 +1082,11 @@
         <v>26</v>
       </c>
       <c r="E16" s="15"/>
-      <c r="F16" s="55"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="39" customHeight="1">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="18" t="s">
         <v>8</v>
       </c>
@@ -1091,11 +1094,11 @@
         <v>27</v>
       </c>
       <c r="E17" s="15"/>
-      <c r="F17" s="55"/>
+      <c r="F17" s="43"/>
     </row>
     <row r="18" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
@@ -1103,11 +1106,11 @@
         <v>24</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="55"/>
+      <c r="F18" s="43"/>
     </row>
     <row r="19" spans="1:6" ht="45.75" customHeight="1">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="19" t="s">
         <v>7</v>
       </c>
@@ -1115,7 +1118,7 @@
         <v>29</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="56"/>
+      <c r="F19" s="44"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="2"/>
@@ -1136,10 +1139,10 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="36.75" customHeight="1">
-      <c r="A23" s="48">
+      <c r="A23" s="58">
         <v>3</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="48" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="26" t="s">
@@ -1149,13 +1152,13 @@
         <v>36</v>
       </c>
       <c r="E23" s="29"/>
-      <c r="F23" s="54" t="s">
+      <c r="F23" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="25" t="s">
         <v>5</v>
       </c>
@@ -1163,11 +1166,11 @@
         <v>38</v>
       </c>
       <c r="E24" s="15"/>
-      <c r="F24" s="55"/>
+      <c r="F24" s="43"/>
     </row>
     <row r="25" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="25" t="s">
         <v>8</v>
       </c>
@@ -1175,11 +1178,11 @@
         <v>31</v>
       </c>
       <c r="E25" s="15"/>
-      <c r="F25" s="55"/>
+      <c r="F25" s="43"/>
     </row>
     <row r="26" spans="1:6" ht="34.5" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="25" t="s">
         <v>6</v>
       </c>
@@ -1189,11 +1192,11 @@
       <c r="E26" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="E27" s="30"/>
-      <c r="F27" s="56"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="2"/>
@@ -1222,70 +1225,70 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A31" s="48">
+      <c r="A31" s="58">
         <v>4</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="36" t="s">
-        <v>43</v>
+      <c r="D31" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="E31" s="29"/>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.5">
-      <c r="A32" s="49"/>
-      <c r="B32" s="52"/>
+    <row r="32" spans="1:6" ht="34.5" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="37" t="s">
-        <v>41</v>
+      <c r="D32" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="E32" s="15"/>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A33" s="49"/>
-      <c r="B33" s="52"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" ht="37.5" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="37" t="s">
-        <v>44</v>
+      <c r="D33" s="36" t="s">
+        <v>42</v>
       </c>
       <c r="E33" s="15"/>
-      <c r="F33" s="55"/>
-    </row>
-    <row r="34" spans="1:6" ht="47.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="52"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" ht="38.25" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="37" t="s">
-        <v>42</v>
+      <c r="D34" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="55"/>
+      <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="40" t="s">
+      <c r="A35" s="60"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="38" t="s">
-        <v>45</v>
+      <c r="D35" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="E35" s="30"/>
-      <c r="F35" s="56"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="2"/>
